--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,43 +1164,49 @@
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,43 +1217,49 @@
         <v>-800</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,40 +1294,46 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,10 +1397,10 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1329,31 +1409,37 @@
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
       </c>
       <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,46 +1606,52 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,46 +1659,52 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1790,40 +1930,46 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,46 +1977,52 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,98 +2083,110 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,46 +2236,52 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,10 +2378,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2460,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2271,10 +2469,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,46 +2501,52 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2412,25 +2628,31 @@
         <v>2900</v>
       </c>
       <c r="L48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N48" s="3">
         <v>2800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2600</v>
       </c>
       <c r="O48" s="3">
         <v>2600</v>
       </c>
       <c r="P48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,46 +2925,52 @@
         <v>3100</v>
       </c>
       <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,78 +3009,86 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2838,13 +3106,19 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2863,11 +3137,11 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2890,102 +3164,120 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F61" s="3">
         <v>4300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2998,41 +3290,47 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>14900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>8200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>7600</v>
       </c>
       <c r="Q62" s="3">
         <v>8200</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S62" s="3">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-14500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-27100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-14800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-13800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-6200</v>
       </c>
       <c r="Q76" s="3">
         <v>-6000</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,46 +4159,52 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4212,17 +4654,23 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,17 +950,17 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -955,28 +969,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,17 +1074,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1185,28 +1212,31 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,22 +1244,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1238,28 +1268,31 @@
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,11 +1334,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1312,28 +1346,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
@@ -1415,13 +1455,13 @@
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
@@ -1430,69 +1470,75 @@
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
       </c>
       <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
       </c>
       <c r="L26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-900</v>
       </c>
       <c r="L27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,11 +2006,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1948,81 +2018,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
       </c>
       <c r="L33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
       </c>
       <c r="L35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,10 +2477,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,22 +2547,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2475,7 +2574,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,19 +2591,22 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2513,40 +2615,43 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2634,10 +2742,10 @@
         <v>2900</v>
       </c>
       <c r="N48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O48" s="3">
         <v>2800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2600</v>
       </c>
       <c r="P48" s="3">
         <v>2600</v>
@@ -2646,13 +2754,16 @@
         <v>2600</v>
       </c>
       <c r="R48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="S48" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3051,55 @@
         <v>3100</v>
       </c>
       <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3100</v>
       </c>
       <c r="G54" s="3">
         <v>3100</v>
       </c>
       <c r="H54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3300</v>
       </c>
       <c r="M54" s="3">
         <v>3300</v>
       </c>
       <c r="N54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,70 +3141,74 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3112,39 +3246,42 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3170,61 +3307,67 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,52 +3375,55 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3296,41 +3442,44 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>9000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-10300</v>
       </c>
       <c r="R72" s="3">
         <v>-10300</v>
       </c>
       <c r="S72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-27100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
       </c>
       <c r="L81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,49 +4756,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
@@ -4593,10 +4810,13 @@
         <v>-500</v>
       </c>
       <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4660,17 +4881,20 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4801,35 +5031,38 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,26 +5304,29 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5088,43 +5334,46 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5132,11 +5381,11 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5144,11 +5393,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5156,68 +5405,74 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,17 +966,17 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -972,28 +985,31 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,17 +1096,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1095,17 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,34 +1204,35 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1215,28 +1241,31 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,25 +1273,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
@@ -1271,28 +1300,31 @@
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,11 +1370,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1349,28 +1382,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1458,13 +1497,13 @@
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
@@ -1473,72 +1512,78 @@
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-900</v>
       </c>
       <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-900</v>
       </c>
       <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-900</v>
       </c>
       <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2009,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2021,84 +2090,90 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-900</v>
       </c>
       <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-900</v>
       </c>
       <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,55 +2409,58 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2480,10 +2572,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,34 +2633,37 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2577,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2594,22 +2692,25 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2618,40 +2719,43 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2745,10 +2852,10 @@
         <v>2900</v>
       </c>
       <c r="O48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P48" s="3">
         <v>2800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2600</v>
       </c>
       <c r="Q48" s="3">
         <v>2600</v>
@@ -2757,13 +2864,16 @@
         <v>2600</v>
       </c>
       <c r="S48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="T48" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E54" s="3">
         <v>3100</v>
       </c>
       <c r="F54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G54" s="3">
         <v>3000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3100</v>
       </c>
       <c r="H54" s="3">
         <v>3100</v>
       </c>
       <c r="I54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3300</v>
       </c>
       <c r="N54" s="3">
         <v>3300</v>
       </c>
       <c r="O54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,76 +3271,80 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
       </c>
       <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3227,8 +3360,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3249,13 +3382,16 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3280,11 +3416,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3310,64 +3446,70 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>9600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,108 +3520,114 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-10300</v>
       </c>
       <c r="S72" s="3">
         <v>-10300</v>
       </c>
       <c r="T72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-27100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-13300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-900</v>
       </c>
       <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,52 +4972,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-500</v>
       </c>
       <c r="R89" s="3">
         <v>-500</v>
@@ -4813,10 +5029,13 @@
         <v>-500</v>
       </c>
       <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,8 +5092,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4884,17 +5104,20 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5034,35 +5263,38 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,29 +5549,32 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5337,34 +5582,37 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,11 +5620,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5384,11 +5632,11 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5396,11 +5644,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5408,19 +5656,22 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,51 +5679,54 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,16 +975,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -969,47 +997,53 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,35 +1139,41 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,13 +1268,13 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1229,43 +1283,49 @@
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
@@ -1288,43 +1348,49 @@
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,40 +1441,46 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,16 +1538,22 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1488,10 +1568,10 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
@@ -1500,90 +1580,102 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1400</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1400</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1400</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2081,99 +2221,111 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1400</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1400</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2412,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2421,46 +2595,52 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2575,10 +2761,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2669,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2678,10 +2876,10 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2695,67 +2893,79 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2855,25 +3071,31 @@
         <v>2900</v>
       </c>
       <c r="P48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R48" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2600</v>
       </c>
       <c r="S48" s="3">
         <v>2600</v>
       </c>
       <c r="T48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3176,58 +3428,64 @@
         <v>3000</v>
       </c>
       <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="3">
         <v>3100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3000</v>
       </c>
       <c r="H54" s="3">
         <v>3100</v>
       </c>
       <c r="I54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,85 +3532,93 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3363,11 +3631,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3385,13 +3653,19 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3419,14 +3693,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3449,126 +3723,144 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>5500</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3597,37 +3889,43 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>8200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>7600</v>
       </c>
       <c r="U62" s="3">
         <v>8200</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W62" s="3">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>18100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>17100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-28300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-27100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-14800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-13300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-6200</v>
       </c>
       <c r="U76" s="3">
         <v>-6000</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1400</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,19 +5403,25 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4996,46 +5430,52 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-500</v>
       </c>
       <c r="S89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-500</v>
       </c>
       <c r="U89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5095,11 +5537,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5107,17 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5266,35 +5726,41 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5620,58 +6118,64 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5682,51 +6186,57 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-300</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1002,8 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1003,17 +1017,17 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1022,28 +1036,31 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1145,17 +1165,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,43 +1285,44 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1304,28 +1331,31 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,34 +1363,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
@@ -1369,28 +1399,31 @@
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1447,11 +1481,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1459,28 +1493,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,10 +1593,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1574,7 +1614,7 @@
         <v>600</v>
       </c>
       <c r="L22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
@@ -1586,13 +1626,13 @@
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>500</v>
@@ -1601,81 +1641,87 @@
         <v>500</v>
       </c>
       <c r="U22" s="3">
+        <v>500</v>
+      </c>
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-900</v>
       </c>
       <c r="O23" s="3">
         <v>-900</v>
       </c>
       <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-900</v>
       </c>
       <c r="O26" s="3">
         <v>-900</v>
       </c>
       <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-900</v>
       </c>
       <c r="O27" s="3">
         <v>-900</v>
       </c>
       <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2227,11 +2297,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2239,93 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-900</v>
       </c>
       <c r="O33" s="3">
         <v>-900</v>
       </c>
       <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-900</v>
       </c>
       <c r="O35" s="3">
         <v>-900</v>
       </c>
       <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2592,55 +2679,58 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2767,10 +2860,13 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,28 +2948,28 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2882,7 +2981,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,31 +2998,34 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2932,40 +3034,43 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3077,10 +3185,10 @@
         <v>2900</v>
       </c>
       <c r="R48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S48" s="3">
         <v>2800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2600</v>
       </c>
       <c r="T48" s="3">
         <v>2600</v>
@@ -3089,13 +3197,16 @@
         <v>2600</v>
       </c>
       <c r="V48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="W48" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,64 +3554,67 @@
         <v>3000</v>
       </c>
       <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3100</v>
       </c>
       <c r="H54" s="3">
         <v>3100</v>
       </c>
       <c r="I54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J54" s="3">
         <v>3000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3100</v>
       </c>
       <c r="K54" s="3">
         <v>3100</v>
       </c>
       <c r="L54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3300</v>
       </c>
       <c r="Q54" s="3">
         <v>3300</v>
       </c>
       <c r="R54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,94 +3664,98 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>700</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
       </c>
       <c r="T57" s="3">
+        <v>700</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3659,13 +3793,16 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3699,11 +3836,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3729,84 +3866,90 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
       <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3815,52 +3958,55 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3895,37 +4041,40 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>9000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-10300</v>
       </c>
       <c r="V72" s="3">
         <v>-10300</v>
       </c>
       <c r="W72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="X72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-13800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-900</v>
       </c>
       <c r="O81" s="3">
         <v>-900</v>
       </c>
       <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,61 +5623,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
       </c>
       <c r="U89" s="3">
         <v>-500</v>
@@ -5472,10 +5689,13 @@
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5555,17 +5776,20 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5732,35 +5962,38 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,38 +6287,41 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6083,34 +6329,37 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,20 +6367,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -6139,11 +6388,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6151,11 +6400,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6163,19 +6412,22 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6192,51 +6444,54 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DENR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>DENR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1018,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1020,17 +1033,17 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1039,28 +1052,31 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
       <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1143,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1168,17 +1187,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,46 +1311,47 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1334,28 +1360,31 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,37 +1392,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
@@ -1402,28 +1431,31 @@
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1484,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1496,28 +1529,31 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,10 +1635,10 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
@@ -1617,7 +1656,7 @@
         <v>600</v>
       </c>
       <c r="M22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
@@ -1629,13 +1668,13 @@
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>500</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
@@ -1644,84 +1683,90 @@
         <v>500</v>
       </c>
       <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
       </c>
       <c r="P23" s="3">
         <v>-900</v>
       </c>
       <c r="Q23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
       </c>
       <c r="P26" s="3">
         <v>-900</v>
       </c>
       <c r="Q26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-900</v>
       </c>
       <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2300,11 +2369,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2312,96 +2381,102 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-900</v>
       </c>
       <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-900</v>
       </c>
       <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2682,55 +2768,58 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2863,10 +2955,13 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,28 +3049,28 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2984,7 +3082,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3001,34 +3099,37 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -3037,40 +3138,43 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3188,10 +3295,10 @@
         <v>2900</v>
       </c>
       <c r="S48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T48" s="3">
         <v>2800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2600</v>
       </c>
       <c r="U48" s="3">
         <v>2600</v>
@@ -3200,13 +3307,16 @@
         <v>2600</v>
       </c>
       <c r="W48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="X48" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,64 +3682,67 @@
         <v>3000</v>
       </c>
       <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3100</v>
       </c>
       <c r="I54" s="3">
         <v>3100</v>
       </c>
       <c r="J54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3100</v>
       </c>
       <c r="L54" s="3">
         <v>3100</v>
       </c>
       <c r="M54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N54" s="3">
         <v>3200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3300</v>
       </c>
       <c r="R54" s="3">
         <v>3300</v>
       </c>
       <c r="S54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
       </c>
       <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,23 +3875,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3774,8 +3907,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3796,13 +3929,16 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3839,11 +3975,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3869,90 +4005,96 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>700</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3961,52 +4103,55 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4044,37 +4189,40 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>9000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17700</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-10300</v>
       </c>
       <c r="W72" s="3">
         <v>-10300</v>
       </c>
       <c r="X72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-27100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-13800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-13300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-900</v>
       </c>
       <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,55 +5851,55 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
@@ -5692,10 +5908,13 @@
         <v>-500</v>
       </c>
       <c r="X89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,8 +5987,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5779,17 +5999,20 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5965,35 +6194,38 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,41 +6532,44 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6332,34 +6577,37 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6370,20 +6618,20 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6391,11 +6639,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6403,11 +6651,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6415,19 +6663,22 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6447,51 +6698,54 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2700</v>
       </c>
     </row>
